--- a/StealthAssessment/bin/ConfigFiles/GameTraces.xlsx
+++ b/StealthAssessment/bin/ConfigFiles/GameTraces.xlsx
@@ -50,9 +50,6 @@
     <t>Moeilijkheid</t>
   </si>
   <si>
-    <t>Max Punten</t>
-  </si>
-  <si>
     <t>ROC</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>S-OP-P:S-DLANG-R:S-ASKPR-R:S-LKUP:S-DSP-LST20:S-RETRY-R:S-DSP-LST20</t>
+  </si>
+  <si>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
@@ -662,10 +662,13 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -719,40 +722,40 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -787,16 +790,16 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -807,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -831,16 +834,16 @@
         <v>-4</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
       <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
         <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -851,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -875,16 +878,16 @@
         <v>-2</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -895,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -919,16 +922,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>8</v>
       </c>
       <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
         <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -963,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1004,13 +1007,13 @@
         <v>-1</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1021,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1045,13 +1048,13 @@
         <v>-4</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1062,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1086,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>32</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1103,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1127,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1144,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1168,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>32</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1185,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1209,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1226,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1250,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1267,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1291,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1308,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1332,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1349,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1373,13 +1376,13 @@
         <v>-2</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17">
         <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1390,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1414,13 +1417,13 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18">
         <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1431,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1455,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1472,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1496,13 +1499,13 @@
         <v>-5</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1513,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1537,13 +1540,13 @@
         <v>-4</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1578,13 +1581,13 @@
         <v>-4</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1595,37 +1598,37 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>43</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1636,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1660,13 +1663,13 @@
         <v>-7</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1701,13 +1704,13 @@
         <v>-4</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1742,13 +1745,13 @@
         <v>-5</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26">
         <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1759,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1783,13 +1786,13 @@
         <v>-9</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1800,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1824,13 +1827,13 @@
         <v>-1</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28">
         <v>8</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1865,13 +1868,13 @@
         <v>-1</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29">
         <v>8</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1882,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1906,13 +1909,13 @@
         <v>-5</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1947,13 +1950,13 @@
         <v>-5</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1964,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1988,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L32">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2005,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2029,13 +2032,13 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L33">
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2046,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2070,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34">
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2087,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2111,13 +2114,13 @@
         <v>-1</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2128,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2152,13 +2155,13 @@
         <v>-5</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2169,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2193,13 +2196,13 @@
         <v>-1</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2210,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2234,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2251,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2275,13 +2278,13 @@
         <v>-6</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,37 +2295,37 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>14</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>-1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>-1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>15</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2333,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2357,13 +2360,13 @@
         <v>-6</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2398,13 +2401,13 @@
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42">
         <v>9</v>
       </c>
       <c r="N42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2439,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43">
         <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2456,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2480,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2521,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2562,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2603,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2620,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2644,13 +2647,13 @@
         <v>-2</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48">
         <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2661,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2685,13 +2688,13 @@
         <v>-6</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49">
         <v>9</v>
       </c>
       <c r="N49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2702,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2726,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2743,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2767,13 +2770,13 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51">
         <v>9</v>
       </c>
       <c r="N51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2808,13 +2811,13 @@
         <v>-11</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L52">
         <v>12</v>
       </c>
       <c r="N52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2825,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2849,13 +2852,13 @@
         <v>-6</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53">
         <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2866,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2890,13 +2893,13 @@
         <v>-4</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L54">
         <v>12</v>
       </c>
       <c r="N54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2907,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2931,13 +2934,13 @@
         <v>-6</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L55">
         <v>12</v>
       </c>
       <c r="N55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2948,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2972,13 +2975,13 @@
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L56">
         <v>13</v>
       </c>
       <c r="N56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -2989,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3013,13 +3016,13 @@
         <v>-5</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L57">
         <v>12</v>
       </c>
       <c r="N57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3030,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3054,13 +3057,13 @@
         <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58">
         <v>12</v>
       </c>
       <c r="N58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3071,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3095,13 +3098,13 @@
         <v>-9</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L59">
         <v>12</v>
       </c>
       <c r="N59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3112,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3136,13 +3139,13 @@
         <v>-2</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60">
         <v>9</v>
       </c>
       <c r="N60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3153,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3177,13 +3180,13 @@
         <v>-6</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L61">
         <v>12</v>
       </c>
       <c r="N61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3194,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3218,13 +3221,13 @@
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L62">
         <v>13</v>
       </c>
       <c r="N62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3235,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3259,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63">
+        <v>13</v>
+      </c>
+      <c r="N63" t="s">
         <v>79</v>
-      </c>
-      <c r="L63">
-        <v>13</v>
-      </c>
-      <c r="N63" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3276,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3300,13 +3303,13 @@
         <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L64">
         <v>12</v>
       </c>
       <c r="N64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3317,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3341,13 +3344,13 @@
         <v>-2</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65">
         <v>9</v>
       </c>
       <c r="N65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3358,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3382,13 +3385,13 @@
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L66">
         <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3399,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3423,13 +3426,13 @@
         <v>3</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L67">
         <v>12</v>
       </c>
       <c r="N67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3440,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3464,13 +3467,13 @@
         <v>4</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68">
         <v>13</v>
       </c>
       <c r="N68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3478,10 +3481,10 @@
         <v>42772.420093506946</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3505,13 +3508,13 @@
         <v>-6</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69">
         <v>9</v>
       </c>
       <c r="N69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3519,10 +3522,10 @@
         <v>42773.330722905092</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3546,13 +3549,13 @@
         <v>3</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L70">
         <v>9</v>
       </c>
       <c r="N70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3563,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3587,13 +3590,13 @@
         <v>-2</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L71">
         <v>9</v>
       </c>
       <c r="N71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3601,10 +3604,10 @@
         <v>42773.511479849534</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3628,13 +3631,13 @@
         <v>3</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L72">
         <v>9</v>
       </c>
       <c r="N72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3642,10 +3645,10 @@
         <v>42773.717422951391</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3669,13 +3672,13 @@
         <v>-5</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L73">
         <v>9</v>
       </c>
       <c r="N73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3683,10 +3686,10 @@
         <v>42773.727602453699</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3710,13 +3713,13 @@
         <v>-1</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L74">
         <v>9</v>
       </c>
       <c r="N74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3724,10 +3727,10 @@
         <v>42773.728575266199</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3751,13 +3754,13 @@
         <v>-1</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L75">
         <v>12</v>
       </c>
       <c r="N75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -3765,10 +3768,10 @@
         <v>42773.731198333335</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3792,13 +3795,13 @@
         <v>-1</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L76">
         <v>9</v>
       </c>
       <c r="N76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3806,10 +3809,10 @@
         <v>42773.732763101856</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3833,13 +3836,13 @@
         <v>-1</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77">
         <v>9</v>
       </c>
       <c r="N77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>42773.746578009261</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3874,13 +3877,13 @@
         <v>-5</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L78">
         <v>9</v>
       </c>
       <c r="N78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -3888,10 +3891,10 @@
         <v>42773.760558738424</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3915,13 +3918,13 @@
         <v>-6</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79">
         <v>9</v>
       </c>
       <c r="N79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -3929,10 +3932,10 @@
         <v>42773.763318842597</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3956,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80">
         <v>9</v>
       </c>
       <c r="N80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -3970,10 +3973,10 @@
         <v>42773.764089895834</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3997,13 +4000,13 @@
         <v>-5</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81">
         <v>9</v>
       </c>
       <c r="N81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4011,10 +4014,10 @@
         <v>42773.769168587962</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4038,13 +4041,13 @@
         <v>-8</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82">
         <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/StealthAssessment/bin/ConfigFiles/GameTraces.xlsx
+++ b/StealthAssessment/bin/ConfigFiles/GameTraces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
